--- a/Excel/SeasonJingHeConfig.xlsx
+++ b/Excel/SeasonJingHeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEE0337-90E1-4A01-82D7-526E514B7618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C102F1-D908-454D-8623-0CCD6589F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -99,18 +99,6 @@
   </si>
   <si>
     <t>AddProperty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应装备子类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquopSubType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1319,7 +1307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1345,9 +1333,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1993,191 +1978,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I14"/>
+  <dimension ref="C1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="9" customWidth="1"/>
-    <col min="7" max="9" width="9" style="2"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="23.625" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="F1" s="9"/>
+    <row r="1" spans="3:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="9"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
     </row>
-    <row r="3" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
-        <v>2001</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
-        <v>2002</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
-        <v>2003</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9" s="11">
-        <v>2004</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
-        <v>2005</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>6</v>
       </c>
-      <c r="D11" s="11">
-        <v>2006</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
-        <v>2007</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="11">
-        <v>2008</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
         <v>9</v>
       </c>
-      <c r="D14" s="11">
-        <v>2009</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Excel/SeasonJingHeConfig.xlsx
+++ b/Excel/SeasonJingHeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C102F1-D908-454D-8623-0CCD6589F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C258963-03B9-4B6E-84AE-EF260E394BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonJingHeProto" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{0AF4BFCC-5125-47D4-9758-6103D606F913}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+开启晶核位置的额外属性
+100603;80@100803;80</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -32,66 +69,12 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1;100</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>开启消耗</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;200</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;400</t>
-  </si>
-  <si>
-    <t>1;500</t>
-  </si>
-  <si>
-    <t>1;600</t>
-  </si>
-  <si>
-    <t>1;700</t>
-  </si>
-  <si>
-    <t>1;800</t>
-  </si>
-  <si>
-    <t>1;900</t>
-  </si>
-  <si>
-    <t>100203;300</t>
-  </si>
-  <si>
-    <t>100203;500</t>
-  </si>
-  <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-  </si>
-  <si>
-    <t>100402;0.01</t>
-  </si>
-  <si>
-    <t>200903;0.02</t>
-  </si>
-  <si>
-    <t>200103;0.02</t>
-  </si>
-  <si>
-    <t>100603;80@100803;80</t>
   </si>
   <si>
     <t>额外属性</t>
@@ -101,12 +84,34 @@
     <t>AddProperty</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>10000162;5</t>
+  </si>
+  <si>
+    <t>10000162;10</t>
+  </si>
+  <si>
+    <t>10000162;15</t>
+  </si>
+  <si>
+    <t>10000162;20</t>
+  </si>
+  <si>
+    <t>10000162;25</t>
+  </si>
+  <si>
+    <t>10000162;30</t>
+  </si>
+  <si>
+    <t>10000162;1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +191,21 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1307,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1333,6 +1353,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1977,11 +2000,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2003,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2014,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,11 +2058,11 @@
       <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,10 +2070,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2058,10 +2081,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2069,10 +2092,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2080,10 +2103,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2091,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2102,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2115,8 +2138,8 @@
       <c r="D13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
+      <c r="E13" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,15 +2147,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>